--- a/xlsx/_baidu_关羽云长_intext.xlsx
+++ b/xlsx/_baidu_关羽云长_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>关羽云长</t>
   </si>
@@ -23,12 +23,42 @@
     <t>https://baike.baidu.com/view/2087917.htm</t>
   </si>
   <si>
+    <t>https://baike.baidu.com/item/%E4%B8%80%E9%AA%91%E5%BD%93%E5%8D%83</t>
+  </si>
+  <si>
+    <t>一骑当千</t>
+  </si>
+  <si>
     <t>https://baike.baidu.com/item/%E5%85%B3%E7%BE%BD</t>
   </si>
   <si>
     <t>关羽</t>
   </si>
   <si>
+    <t>https://baike.baidu.com/item/%E5%BE%A1%E5%A7%90</t>
+  </si>
+  <si>
+    <t>御姐</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%B3%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>关帝</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BE%90%E5%BA%B6%E5%85%83%E7%9B%B4</t>
+  </si>
+  <si>
+    <t>徐庶元直</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%88%98%E5%A4%87%E7%8E%84%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>刘备玄德</t>
+  </si>
+  <si>
     <t>https://baike.baidu.com/item/%E6%88%90%E9%83%BD%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
@@ -41,18 +71,6 @@
     <t>生天目仁美</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E5%88%98%E5%A4%87%E7%8E%84%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>刘备玄德</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B8%80%E9%AA%91%E5%BD%93%E5%8D%83</t>
-  </si>
-  <si>
-    <t>一骑当千</t>
-  </si>
-  <si>
     <t>https://baike.baidu.com/item/%E5%91%A8%E7%91%9C%E5%85%AC%E7%91%BE</t>
   </si>
   <si>
@@ -327,12 +345,6 @@
   </si>
   <si>
     <t>诸葛亮孔明</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%BE%90%E5%BA%B6%E5%85%83%E7%9B%B4</t>
-  </si>
-  <si>
-    <t>徐庶元直</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E8%AF%B8%E8%91%9B%E7%91%BE%E5%AD%90%E7%91%9C</t>
@@ -759,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -830,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -853,7 +865,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -876,7 +888,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -899,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -922,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -945,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -968,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -991,7 +1003,7 @@
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1037,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1060,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1083,7 +1095,7 @@
         <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1106,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1129,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1152,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1175,7 +1187,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1198,7 +1210,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1244,7 +1256,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1313,7 +1325,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1359,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1382,7 +1394,7 @@
         <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1428,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,7 +1463,7 @@
         <v>59</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1520,7 +1532,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1566,7 +1578,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1589,7 +1601,7 @@
         <v>71</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1612,7 +1624,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1635,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1658,7 +1670,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1681,7 +1693,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1704,7 +1716,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1750,7 +1762,7 @@
         <v>85</v>
       </c>
       <c r="G43" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1773,7 +1785,7 @@
         <v>87</v>
       </c>
       <c r="G44" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1796,7 +1808,7 @@
         <v>89</v>
       </c>
       <c r="G45" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1819,7 +1831,7 @@
         <v>91</v>
       </c>
       <c r="G46" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1842,7 +1854,7 @@
         <v>93</v>
       </c>
       <c r="G47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1865,7 +1877,7 @@
         <v>95</v>
       </c>
       <c r="G48" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1888,7 +1900,7 @@
         <v>97</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1911,7 +1923,7 @@
         <v>99</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1934,7 +1946,7 @@
         <v>101</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1980,7 +1992,7 @@
         <v>105</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2026,7 +2038,7 @@
         <v>109</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2049,7 +2061,7 @@
         <v>111</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2072,7 +2084,7 @@
         <v>113</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2141,7 +2153,7 @@
         <v>119</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2187,7 +2199,7 @@
         <v>123</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2210,7 +2222,7 @@
         <v>125</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2279,6 +2291,52 @@
         <v>131</v>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" t="n">
         <v>1</v>
       </c>
     </row>
